--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>CYRS</t>
+  </si>
+  <si>
+    <t>SRS or HIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At startup, WELCOME mode shall be one of the following modes:
+● First mode: LEDs shall be ON from L6 to L1, then from R1 to R6 and vice versa, and then all LEDs are ON and OFF.
+● Second mode: LEDS from R1 to R6 are ON LED by LED and also the left branch at the same time, and then repeat the scenario again.
+</t>
+  </si>
+  <si>
+    <t>Tail function shall be activated according to Tail switch.</t>
+  </si>
+  <si>
+    <t>TI function shall be activated be activated according to TI switch, LEDs shall be activated LED by LED from R1 to R6 or from L1 to L6.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +50,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -40,18 +72,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +520,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="116.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CRS</t>
   </si>
   <si>
     <t>CYRS</t>
-  </si>
-  <si>
-    <t>SRS or HIS</t>
   </si>
   <si>
     <t xml:space="preserve">At startup, WELCOME mode shall be one of the following modes:
@@ -35,6 +32,21 @@
   </si>
   <si>
     <t>TI function shall be activated be activated according to TI switch, LEDs shall be activated LED by LED from R1 to R6 or from L1 to L6.</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_CYRS_001 _ Imp # HW&amp;SW</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_CYRS_002 _ Imp # SW</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_CYRS_003 _ Imp # SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SRS</t>
   </si>
 </sst>
 </file>
@@ -203,20 +215,42 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,13 +558,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,28 +576,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="12"/>
     </row>
   </sheetData>

--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>CRS</t>
   </si>
@@ -43,10 +43,31 @@
     <t>Req _ LED STRING ANIMATION_PO5_CYRS_003 _ Imp # SW</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>SRS</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 002_ v01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hardware Only</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 001 _ v01</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 003_ v01</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 004_ v01</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 005_ v01</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 006_ v01</t>
+  </si>
+  <si>
+    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 007_ v01</t>
   </si>
 </sst>
 </file>
@@ -76,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -88,45 +109,125 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -137,24 +238,58 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -166,45 +301,20 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -213,32 +323,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -248,7 +358,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,60 +686,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="93.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>CRS</t>
   </si>
@@ -22,52 +22,94 @@
     <t>CYRS</t>
   </si>
   <si>
-    <t xml:space="preserve">At startup, WELCOME mode shall be one of the following modes:
-● First mode: LEDs shall be ON from L6 to L1, then from R1 to R6 and vice versa, and then all LEDs are ON and OFF.
-● Second mode: LEDS from R1 to R6 are ON LED by LED and also the left branch at the same time, and then repeat the scenario again.
-</t>
-  </si>
-  <si>
-    <t>Tail function shall be activated according to Tail switch.</t>
-  </si>
-  <si>
-    <t>TI function shall be activated be activated according to TI switch, LEDs shall be activated LED by LED from R1 to R6 or from L1 to L6.</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_CYRS_001 _ Imp # HW&amp;SW</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_CYRS_002 _ Imp # SW</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_CYRS_003 _ Imp # SW</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 002_ v01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hardware Only</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 001 _ v01</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 003_ v01</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 004_ v01</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 005_ v01</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 006_ v01</t>
-  </si>
-  <si>
-    <t>Req _ LED STRING ANIMATION_PO5_SRS _ 007_ v01</t>
+    <t>Req_ PO5_LSAN_CRS_001_V01</t>
+  </si>
+  <si>
+    <t>Req_ PO5_LSAN_CRS_002_V01</t>
+  </si>
+  <si>
+    <t>Req_ PO5_LSAN_CRS_003_V01</t>
+  </si>
+  <si>
+    <t>HSl</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_001_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_002_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_003_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_004_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_005_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_006_V01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SELECT WELCOME MODE_PO5_CYRS_001-V01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SEQUENCE OF WELCOME MODE ONE_PO5_CYRS_002-V01            </t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE TWO_PO5_CYRS_003-V01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SEQUENCE OF TAIL FUNCTION_PO5_CYRS_004-V01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SEQUENCE OF TI FUNCTION RIGHT_PO5_CYRS_005-V02    </t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TI FUNCTION LEFT_PO5_CYRS_006-V02</t>
+  </si>
+  <si>
+    <t>Req _ SELECT WELCOME MODE _PO5_SRS _ 001 _ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 002_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 003_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 004_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 005_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 006_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 007_ v01</t>
+  </si>
+  <si>
+    <t>Req SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 008_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 009_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE TWO _PO5_SRS _ 010_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TAIL FUNCTION _PO5_SRS _ 011_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TI FUNCTION RIGHT _PO5_SRS _ 012_ v02</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TI FUNCTION LEFT _PO5_SRS _ 013_ v02</t>
   </si>
 </sst>
 </file>
@@ -83,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,12 +134,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -106,6 +154,78 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -136,6 +256,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -143,156 +272,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -307,9 +286,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -317,53 +303,102 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -376,10 +411,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,105 +727,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
+  <mergeCells count="16">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>CRS</t>
   </si>
@@ -22,9 +22,6 @@
     <t>CYRS</t>
   </si>
   <si>
-    <t>SRS</t>
-  </si>
-  <si>
     <t>Req_ PO5_LSAN_CRS_001_V01</t>
   </si>
   <si>
@@ -34,82 +31,22 @@
     <t>Req_ PO5_LSAN_CRS_003_V01</t>
   </si>
   <si>
-    <t>HSl</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_001_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_002_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_003_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_004_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_005_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_006_V01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SELECT WELCOME MODE_PO5_CYRS_001-V01   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SEQUENCE OF WELCOME MODE ONE_PO5_CYRS_002-V01            </t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE TWO_PO5_CYRS_003-V01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SEQUENCE OF TAIL FUNCTION_PO5_CYRS_004-V01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SEQUENCE OF TI FUNCTION RIGHT_PO5_CYRS_005-V02    </t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TI FUNCTION LEFT_PO5_CYRS_006-V02</t>
-  </si>
-  <si>
-    <t>Req _ SELECT WELCOME MODE _PO5_SRS _ 001 _ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 002_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 003_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 004_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 005_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 006_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 007_ v01</t>
-  </si>
-  <si>
-    <t>Req SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 008_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 009_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE TWO _PO5_SRS _ 010_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TAIL FUNCTION _PO5_SRS _ 011_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TI FUNCTION RIGHT _PO5_SRS _ 012_ v02</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TI FUNCTION LEFT _PO5_SRS _ 013_ v02</t>
+    <t xml:space="preserve">Req _ PO5_LSAN_CYRS_001-V01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO5_LSAN_CYRS_002-V01            </t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_CYRS_003-V01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO5_LSAN_CYRS_004-V01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _PO5_LSAN_CYRS_005-V02    </t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_CYRS_006-V02</t>
   </si>
 </sst>
 </file>
@@ -125,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,18 +71,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -180,33 +111,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -256,15 +163,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -287,15 +185,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -309,15 +198,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -340,87 +220,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,274 +562,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>CRS</t>
   </si>
@@ -22,6 +22,9 @@
     <t>CYRS</t>
   </si>
   <si>
+    <t>SRS</t>
+  </si>
+  <si>
     <t>Req_ PO5_LSAN_CRS_001_V01</t>
   </si>
   <si>
@@ -31,22 +34,82 @@
     <t>Req_ PO5_LSAN_CRS_003_V01</t>
   </si>
   <si>
-    <t xml:space="preserve">Req _ PO5_LSAN_CYRS_001-V01   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO5_LSAN_CYRS_002-V01            </t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_CYRS_003-V01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req_PO5_LSAN_CYRS_004-V01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _PO5_LSAN_CYRS_005-V02    </t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_CYRS_006-V02</t>
+    <t>HSl</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_001_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_002_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_003_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_004_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_005_V01</t>
+  </si>
+  <si>
+    <t>Req_PO5_LSAN_HSI_006_V01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SELECT WELCOME MODE_PO5_CYRS_001-V01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SEQUENCE OF WELCOME MODE ONE_PO5_CYRS_002-V01            </t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE TWO_PO5_CYRS_003-V01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SEQUENCE OF TAIL FUNCTION_PO5_CYRS_004-V01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ SEQUENCE OF TI FUNCTION RIGHT_PO5_CYRS_005-V02    </t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TI FUNCTION LEFT_PO5_CYRS_006-V02</t>
+  </si>
+  <si>
+    <t>Req _ SELECT WELCOME MODE _PO5_SRS _ 001 _ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 002_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 003_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 004_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 005_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 006_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 007_ v01</t>
+  </si>
+  <si>
+    <t>Req SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 008_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 009_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF WELCOME MODE TWO _PO5_SRS _ 010_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TAIL FUNCTION _PO5_SRS _ 011_ v01</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TI FUNCTION RIGHT _PO5_SRS _ 012_ v02</t>
+  </si>
+  <si>
+    <t>Req _ SEQUENCE OF TI FUNCTION LEFT _PO5_SRS _ 013_ v02</t>
   </si>
 </sst>
 </file>
@@ -62,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,12 +134,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -111,9 +180,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -163,6 +256,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -185,6 +287,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -198,6 +309,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -220,42 +340,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,79 +727,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5" t="s">
+      <c r="C21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="16">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Software Specifications/Traceability/RTM.xlsx
+++ b/Software Specifications/Traceability/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>CRS</t>
   </si>
@@ -34,82 +34,76 @@
     <t>Req_ PO5_LSAN_CRS_003_V01</t>
   </si>
   <si>
-    <t>HSl</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_001_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_002_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_003_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_004_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_005_V01</t>
-  </si>
-  <si>
-    <t>Req_PO5_LSAN_HSI_006_V01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SELECT WELCOME MODE_PO5_CYRS_001-V01   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SEQUENCE OF WELCOME MODE ONE_PO5_CYRS_002-V01            </t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE TWO_PO5_CYRS_003-V01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SEQUENCE OF TAIL FUNCTION_PO5_CYRS_004-V01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req _ SEQUENCE OF TI FUNCTION RIGHT_PO5_CYRS_005-V02    </t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TI FUNCTION LEFT_PO5_CYRS_006-V02</t>
-  </si>
-  <si>
-    <t>Req _ SELECT WELCOME MODE _PO5_SRS _ 001 _ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 002_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 003_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 004_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 005_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 006_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 007_ v01</t>
-  </si>
-  <si>
-    <t>Req SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 008_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE ONE _PO5_SRS _ 009_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF WELCOME MODE TWO _PO5_SRS _ 010_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TAIL FUNCTION _PO5_SRS _ 011_ v01</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TI FUNCTION RIGHT _PO5_SRS _ 012_ v02</t>
-  </si>
-  <si>
-    <t>Req _ SEQUENCE OF TI FUNCTION LEFT _PO5_SRS _ 013_ v02</t>
+    <t xml:space="preserve">Req _ PO5_CYRS_001-V01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _ PO5_CYRS_002-V01            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_PO5_CYRS_001-V01   </t>
+  </si>
+  <si>
+    <t>Req _PO5_CYRS_003-V01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _PO5_CYRS_004-V01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req _PO5_CYRS_005-V02    </t>
+  </si>
+  <si>
+    <t>Req _ PO5_CYRS_006-V02</t>
+  </si>
+  <si>
+    <t>Req _ PO5_SRS _ 001 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 002 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 003 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 004 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 005 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 006 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 007 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 08 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 009 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 010_ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 011 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 012 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 013 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 014 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 015 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 016 _ v01</t>
+  </si>
+  <si>
+    <t>Req _PO5_SRS _ 017 _ v01</t>
   </si>
 </sst>
 </file>
@@ -125,18 +119,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -340,87 +328,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,273 +697,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C12"/>
+  <mergeCells count="13">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B12"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
